--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="1" r:id="rId1"/>
-    <sheet name="504 Word" sheetId="2" r:id="rId2"/>
+    <sheet name="برنامه مطالعاتی" sheetId="3" r:id="rId2"/>
+    <sheet name="504 Word" sheetId="2" r:id="rId3"/>
+    <sheet name="فهرست" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>فرستادن رزومه</t>
   </si>
@@ -38,6 +40,207 @@
   </si>
   <si>
     <t>3 ساعت</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>1401/04/22</t>
+  </si>
+  <si>
+    <t>چهارشنبه</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>1401/04/23</t>
+  </si>
+  <si>
+    <t>1401/04/24</t>
+  </si>
+  <si>
+    <t>1401/04/25</t>
+  </si>
+  <si>
+    <t>1401/04/26</t>
+  </si>
+  <si>
+    <t>1401/04/27</t>
+  </si>
+  <si>
+    <t>1401/04/28</t>
+  </si>
+  <si>
+    <t>1401/04/29</t>
+  </si>
+  <si>
+    <t>1401/04/30</t>
+  </si>
+  <si>
+    <t>1401/04/31</t>
+  </si>
+  <si>
+    <t>پنجشنبه</t>
+  </si>
+  <si>
+    <t>جمعه</t>
+  </si>
+  <si>
+    <t>شنبه</t>
+  </si>
+  <si>
+    <t>یکشنبه</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>3 - آموزش الگوی Facade</t>
+  </si>
+  <si>
+    <t>1401/05/01</t>
+  </si>
+  <si>
+    <t>1401/05/02</t>
+  </si>
+  <si>
+    <t>1401/05/03</t>
+  </si>
+  <si>
+    <t>1401/05/04</t>
+  </si>
+  <si>
+    <t>1401/05/05</t>
+  </si>
+  <si>
+    <t>1401/05/06</t>
+  </si>
+  <si>
+    <t>1401/05/07</t>
+  </si>
+  <si>
+    <t>1401/05/08</t>
+  </si>
+  <si>
+    <t>1401/05/09</t>
+  </si>
+  <si>
+    <t>1401/05/10</t>
+  </si>
+  <si>
+    <t>1401/05/11</t>
+  </si>
+  <si>
+    <t>1401/05/12</t>
+  </si>
+  <si>
+    <t>1401/05/13</t>
+  </si>
+  <si>
+    <t>1401/05/14</t>
+  </si>
+  <si>
+    <t>1401/05/15</t>
+  </si>
+  <si>
+    <t>1401/05/16</t>
+  </si>
+  <si>
+    <t>1401/05/17</t>
+  </si>
+  <si>
+    <t>1401/05/18</t>
+  </si>
+  <si>
+    <t>1401/05/19</t>
+  </si>
+  <si>
+    <t>1401/05/20</t>
+  </si>
+  <si>
+    <t>1401/05/21</t>
+  </si>
+  <si>
+    <t>design Pattern</t>
+  </si>
+  <si>
+    <t>1. Decorator</t>
+  </si>
+  <si>
+    <t>2.  Proxy</t>
+  </si>
+  <si>
+    <t>3.  Bridge</t>
+  </si>
+  <si>
+    <t>4.   Composite</t>
+  </si>
+  <si>
+    <t>5.    Flyweight</t>
+  </si>
+  <si>
+    <t>6.   Adapter</t>
+  </si>
+  <si>
+    <t>7.    Façade</t>
+  </si>
+  <si>
+    <t>8.   Prototype</t>
+  </si>
+  <si>
+    <t>9.   Factory Method</t>
+  </si>
+  <si>
+    <t>10.   Singleton</t>
+  </si>
+  <si>
+    <t>11.    Abstract Factory</t>
+  </si>
+  <si>
+    <t>12.     Builder</t>
+  </si>
+  <si>
+    <t>13.     Strategy</t>
+  </si>
+  <si>
+    <t>14.    State</t>
+  </si>
+  <si>
+    <t>15.    Template Method</t>
+  </si>
+  <si>
+    <t>16.    Chan of Responsibility</t>
+  </si>
+  <si>
+    <t>17.    Command</t>
+  </si>
+  <si>
+    <t>18.  Iterator</t>
+  </si>
+  <si>
+    <t>19.   Mediator</t>
+  </si>
+  <si>
+    <t>20.   Observer</t>
+  </si>
+  <si>
+    <t>21.    Visitor</t>
+  </si>
+  <si>
+    <t>22.     Interpreter</t>
+  </si>
+  <si>
+    <t>23.   Memento</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 - مقدمه ای بر Uml   آموزش الگوی Decorator  </t>
   </si>
 </sst>
 </file>
@@ -59,7 +262,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,11 +309,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -470,6 +695,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -480,4 +1019,374 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9">
+        <v>504</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>فرستادن رزومه</t>
   </si>
@@ -42,129 +42,15 @@
     <t>3 ساعت</t>
   </si>
   <si>
-    <t>تاریخ</t>
-  </si>
-  <si>
-    <t>1401/04/22</t>
-  </si>
-  <si>
-    <t>چهارشنبه</t>
-  </si>
-  <si>
     <t>Design Pattern</t>
   </si>
   <si>
-    <t>1401/04/23</t>
-  </si>
-  <si>
-    <t>1401/04/24</t>
-  </si>
-  <si>
-    <t>1401/04/25</t>
-  </si>
-  <si>
-    <t>1401/04/26</t>
-  </si>
-  <si>
-    <t>1401/04/27</t>
-  </si>
-  <si>
     <t>1401/04/28</t>
   </si>
   <si>
-    <t>1401/04/29</t>
-  </si>
-  <si>
-    <t>1401/04/30</t>
-  </si>
-  <si>
-    <t>1401/04/31</t>
-  </si>
-  <si>
-    <t>پنجشنبه</t>
-  </si>
-  <si>
-    <t>جمعه</t>
-  </si>
-  <si>
-    <t>شنبه</t>
-  </si>
-  <si>
-    <t>یکشنبه</t>
-  </si>
-  <si>
-    <t>دوشنبه</t>
-  </si>
-  <si>
-    <t>سه شنبه</t>
-  </si>
-  <si>
     <t>3 - آموزش الگوی Facade</t>
   </si>
   <si>
-    <t>1401/05/01</t>
-  </si>
-  <si>
-    <t>1401/05/02</t>
-  </si>
-  <si>
-    <t>1401/05/03</t>
-  </si>
-  <si>
-    <t>1401/05/04</t>
-  </si>
-  <si>
-    <t>1401/05/05</t>
-  </si>
-  <si>
-    <t>1401/05/06</t>
-  </si>
-  <si>
-    <t>1401/05/07</t>
-  </si>
-  <si>
-    <t>1401/05/08</t>
-  </si>
-  <si>
-    <t>1401/05/09</t>
-  </si>
-  <si>
-    <t>1401/05/10</t>
-  </si>
-  <si>
-    <t>1401/05/11</t>
-  </si>
-  <si>
-    <t>1401/05/12</t>
-  </si>
-  <si>
-    <t>1401/05/13</t>
-  </si>
-  <si>
-    <t>1401/05/14</t>
-  </si>
-  <si>
-    <t>1401/05/15</t>
-  </si>
-  <si>
-    <t>1401/05/16</t>
-  </si>
-  <si>
-    <t>1401/05/17</t>
-  </si>
-  <si>
-    <t>1401/05/18</t>
-  </si>
-  <si>
-    <t>1401/05/19</t>
-  </si>
-  <si>
-    <t>1401/05/20</t>
-  </si>
-  <si>
-    <t>1401/05/21</t>
-  </si>
-  <si>
     <t>design Pattern</t>
   </si>
   <si>
@@ -241,6 +127,90 @@
   </si>
   <si>
     <t xml:space="preserve">    1 - مقدمه ای بر Uml   آموزش الگوی Decorator  </t>
+  </si>
+  <si>
+    <t>B2 listening</t>
+  </si>
+  <si>
+    <t>A business interview</t>
+  </si>
+  <si>
+    <t>A design presentation</t>
+  </si>
+  <si>
+    <t>A digital detox podcast</t>
+  </si>
+  <si>
+    <t>A lecture about an experiment</t>
+  </si>
+  <si>
+    <t>A talk about motivation</t>
+  </si>
+  <si>
+    <t>Business news</t>
+  </si>
+  <si>
+    <t>Creating a study group</t>
+  </si>
+  <si>
+    <t>Film reviews</t>
+  </si>
+  <si>
+    <t>Getting advice</t>
+  </si>
+  <si>
+    <t>Joining a gym</t>
+  </si>
+  <si>
+    <t>Office party planning</t>
+  </si>
+  <si>
+    <t>Talking about rumours</t>
+  </si>
+  <si>
+    <t>تعداد</t>
+  </si>
+  <si>
+    <t>تعداد انجام</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت</t>
+  </si>
+  <si>
+    <t>تاریخ شروع</t>
+  </si>
+  <si>
+    <t>تاریخ پایان</t>
+  </si>
+  <si>
+    <t>A1-A2 Grammer</t>
+  </si>
+  <si>
+    <t>Adjectives and prepositions</t>
+  </si>
+  <si>
+    <t>Adjectives ending in '-ed' and '-ing'</t>
+  </si>
+  <si>
+    <t>Articles 1</t>
+  </si>
+  <si>
+    <t>Articles 2</t>
+  </si>
+  <si>
+    <t>Countable and uncountable nouns 1</t>
+  </si>
+  <si>
+    <t>Countable and uncountable nouns 2</t>
+  </si>
+  <si>
+    <t>Past continuous and past simple</t>
+  </si>
+  <si>
+    <t>Question forms</t>
+  </si>
+  <si>
+    <t>Verbs followed by '-ing' or by 'to' + infinitive 1</t>
   </si>
 </sst>
 </file>
@@ -262,7 +232,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +251,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -305,11 +293,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -320,7 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
@@ -329,6 +382,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,313 +782,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="35.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6">
+        <f>(100*C3)/C2</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10">
+        <f>(100*F3)/F2</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="14">
+        <f>(100*I3)/I2</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1035,21 +1239,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="9">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8">
         <v>504</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1058,7 +1262,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1067,7 +1271,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1076,7 +1280,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1085,7 +1289,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1094,7 +1298,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1103,7 +1307,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1112,7 +1316,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1121,7 +1325,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1130,7 +1334,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1139,7 +1343,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1148,7 +1352,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1157,7 +1361,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1166,7 +1370,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1175,7 +1379,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1184,7 +1388,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1193,7 +1397,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1202,7 +1406,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1211,7 +1415,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1220,7 +1424,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1229,7 +1433,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1238,7 +1442,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1247,7 +1451,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
